--- a/docs/WIP/development plan.xlsx
+++ b/docs/WIP/development plan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>Search</t>
   </si>
@@ -145,7 +145,7 @@
     <t>Miroslav Rudišin, Kryštof Sýkora, David Löffler</t>
   </si>
   <si>
-    <t>TBA with Bestoun</t>
+    <t>Can be replaced</t>
   </si>
 </sst>
 </file>
@@ -210,18 +210,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -243,12 +237,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -265,6 +253,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF538DD5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -621,111 +615,115 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF538DD5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1026,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,58 +1041,58 @@
     </row>
     <row r="5" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="46">
         <v>5</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="46">
         <v>6</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="46">
         <v>7</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="46">
         <v>8</v>
       </c>
-      <c r="H6" s="30">
+      <c r="H6" s="46">
         <v>9</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="46">
         <v>10</v>
       </c>
-      <c r="J6" s="30">
+      <c r="J6" s="46">
         <v>11</v>
       </c>
-      <c r="K6" s="30">
+      <c r="K6" s="46">
         <v>12</v>
       </c>
-      <c r="L6" s="30">
+      <c r="L6" s="46">
         <v>13</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="39">
         <v>14</v>
       </c>
-      <c r="N6" s="32" t="s">
+      <c r="N6" s="39" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1110,7 +1108,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="8"/>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1123,14 +1121,14 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="20"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="14"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
@@ -1146,7 +1144,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="21"/>
+      <c r="N10" s="15"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="2" t="s">
@@ -1162,7 +1160,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="21" t="s">
+      <c r="N11" s="15" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1180,7 +1178,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="3"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="15"/>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="2" t="s">
@@ -1196,7 +1194,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="15"/>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="2" t="s">
@@ -1205,7 +1203,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="54" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1"/>
@@ -1214,7 +1212,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="15"/>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="2" t="s">
@@ -1230,7 +1228,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="21"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
@@ -1246,7 +1244,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="21"/>
+      <c r="N16" s="15"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
@@ -1262,7 +1260,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="21"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
@@ -1272,15 +1270,15 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="11"/>
+      <c r="I18" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="21"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="15"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
@@ -1290,13 +1288,13 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="21"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="15"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
@@ -1312,39 +1310,39 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="21" t="s">
+      <c r="N20" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="50"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1353,65 +1351,65 @@
     </row>
     <row r="26" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="46">
         <v>5</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="46">
         <v>6</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="46">
         <v>7</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="46">
         <v>8</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="46">
         <v>9</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="46">
         <v>10</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="46">
         <v>11</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="46">
         <v>12</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="46">
         <v>13</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="39">
         <v>14</v>
       </c>
-      <c r="N27" s="44" t="s">
+      <c r="N27" s="41" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="45"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="42"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
@@ -1419,8 +1417,8 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="50"/>
-      <c r="N29" s="54" t="s">
+      <c r="M29" s="29"/>
+      <c r="N29" s="33" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1433,14 +1431,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="47" t="s">
+      <c r="I30" s="36"/>
+      <c r="J30" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="47"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="46" t="s">
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="25" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1449,16 +1447,16 @@
         <v>2</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="46" t="s">
+      <c r="M31" s="28"/>
+      <c r="N31" s="25" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1466,19 +1464,19 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="23"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="46" t="s">
+      <c r="M32" s="28"/>
+      <c r="N32" s="25" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1489,14 +1487,14 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="40"/>
+      <c r="G33" s="21"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="1"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="49"/>
-      <c r="N33" s="46"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="25"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
@@ -1507,12 +1505,12 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="49"/>
-      <c r="N34" s="46" t="s">
+      <c r="M34" s="28"/>
+      <c r="N34" s="25" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1523,16 +1521,16 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="35" t="s">
+      <c r="G35" s="11"/>
+      <c r="H35" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="49"/>
-      <c r="N35" s="46" t="s">
+      <c r="M35" s="28"/>
+      <c r="N35" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1543,14 +1541,14 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="46" t="s">
+      <c r="M36" s="28"/>
+      <c r="N36" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1559,16 +1557,16 @@
         <v>8</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
       <c r="H37" s="1"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="49"/>
-      <c r="N37" s="46" t="s">
+      <c r="M37" s="28"/>
+      <c r="N37" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1578,15 +1576,15 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="34"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="18"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="49"/>
-      <c r="N38" s="46" t="s">
+      <c r="M38" s="28"/>
+      <c r="N38" s="25" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1598,15 +1596,15 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="47" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="52"/>
-      <c r="N39" s="46"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="25"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1615,14 +1613,14 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="46" t="s">
+      <c r="G40" s="11"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="25" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1639,47 +1637,58 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="46" t="s">
+      <c r="M41" s="28"/>
+      <c r="N41" s="25" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="55"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="34" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="58" t="s">
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="58"/>
-      <c r="K43" s="58"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="59"/>
-      <c r="N43" s="56"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="C22:M22"/>
@@ -1696,15 +1705,6 @@
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="D32:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/docs/WIP/development plan.xlsx
+++ b/docs/WIP/development plan.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\RSP\102_CASA\docs\WIP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Search</t>
   </si>
@@ -146,6 +141,9 @@
   </si>
   <si>
     <t>Can be replaced</t>
+  </si>
+  <si>
+    <t>Binary search</t>
   </si>
 </sst>
 </file>
@@ -615,7 +613,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -651,10 +649,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
@@ -663,59 +659,62 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -736,9 +735,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -776,9 +775,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,7 +812,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,7 +847,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1022,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:N43"/>
+  <dimension ref="C4:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:N20"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,37 +1043,37 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>5</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="45">
         <v>6</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="45">
         <v>7</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>8</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>9</v>
       </c>
-      <c r="I6" s="46">
+      <c r="I6" s="45">
         <v>10</v>
       </c>
-      <c r="J6" s="46">
+      <c r="J6" s="45">
         <v>11</v>
       </c>
-      <c r="K6" s="46">
+      <c r="K6" s="45">
         <v>12</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6" s="45">
         <v>13</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="47">
         <v>14</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="47" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1082,17 +1081,17 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1121,13 +1120,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
@@ -1203,7 +1202,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="37" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1"/>
@@ -1271,13 +1270,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="55"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
@@ -1288,7 +1287,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1315,34 +1314,34 @@
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="48" t="s">
+      <c r="C21" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="50"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="56"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="43" t="s">
+      <c r="C22" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="45"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="53"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1354,37 +1353,37 @@
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="46">
+      <c r="D27" s="45">
         <v>5</v>
       </c>
-      <c r="E27" s="46">
+      <c r="E27" s="45">
         <v>6</v>
       </c>
-      <c r="F27" s="46">
+      <c r="F27" s="45">
         <v>7</v>
       </c>
-      <c r="G27" s="46">
+      <c r="G27" s="45">
         <v>8</v>
       </c>
-      <c r="H27" s="46">
+      <c r="H27" s="45">
         <v>9</v>
       </c>
-      <c r="I27" s="46">
+      <c r="I27" s="45">
         <v>10</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="45">
         <v>11</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="45">
         <v>12</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="45">
         <v>13</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="47">
         <v>14</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="49" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1392,17 +1391,17 @@
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="42"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="48"/>
+      <c r="N28" s="50"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
@@ -1417,8 +1416,8 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="33" t="s">
+      <c r="M29" s="28"/>
+      <c r="N29" s="31" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1431,13 +1430,13 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="36"/>
+      <c r="I30" s="34"/>
       <c r="J30" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="30"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="59"/>
       <c r="N30" s="25" t="s">
         <v>29</v>
       </c>
@@ -1450,12 +1449,12 @@
       <c r="E31" s="11"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
-      <c r="H31" s="4"/>
+      <c r="H31" s="19"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="28"/>
+      <c r="M31" s="27"/>
       <c r="N31" s="25" t="s">
         <v>31</v>
       </c>
@@ -1464,18 +1463,18 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="51" t="s">
+      <c r="D32" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
       <c r="G32" s="17"/>
       <c r="H32" s="1"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="28"/>
+      <c r="M32" s="27"/>
       <c r="N32" s="25" t="s">
         <v>26</v>
       </c>
@@ -1493,7 +1492,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="1"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="28"/>
+      <c r="M33" s="27"/>
       <c r="N33" s="25"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
@@ -1509,7 +1508,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="28"/>
+      <c r="M34" s="27"/>
       <c r="N34" s="25" t="s">
         <v>27</v>
       </c>
@@ -1529,7 +1528,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="28"/>
+      <c r="M35" s="27"/>
       <c r="N35" s="25" t="s">
         <v>22</v>
       </c>
@@ -1547,7 +1546,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="28"/>
+      <c r="M36" s="27"/>
       <c r="N36" s="25" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1564,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="28"/>
+      <c r="M37" s="27"/>
       <c r="N37" s="25" t="s">
         <v>28</v>
       </c>
@@ -1583,7 +1582,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="28"/>
+      <c r="M38" s="27"/>
       <c r="N38" s="25" t="s">
         <v>22</v>
       </c>
@@ -1599,11 +1598,11 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="36"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="31"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="25"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
@@ -1614,12 +1613,12 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="19"/>
+      <c r="H40" s="18"/>
       <c r="I40" s="19"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="32"/>
+      <c r="M40" s="30"/>
       <c r="N40" s="25" t="s">
         <v>28</v>
       </c>
@@ -1637,7 +1636,7 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="28"/>
+      <c r="M41" s="27"/>
       <c r="N41" s="25" t="s">
         <v>22</v>
       </c>
@@ -1651,12 +1650,12 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="34" t="s">
+      <c r="M42" s="27"/>
+      <c r="N42" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1669,26 +1668,35 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="32" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="C22:M22"/>
@@ -1705,6 +1713,15 @@
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/docs/WIP/development plan.xlsx
+++ b/docs/WIP/development plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Search</t>
   </si>
@@ -145,12 +145,15 @@
   <si>
     <t>Binary search</t>
   </si>
+  <si>
+    <t>Yevgeniya Chekh, David Löffler</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,14 +189,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="8" tint="0.59999389629810485"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -639,7 +634,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -664,54 +658,55 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -1023,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,37 +1038,37 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="51">
         <v>5</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="51">
         <v>6</v>
       </c>
-      <c r="F6" s="45">
+      <c r="F6" s="51">
         <v>7</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="51">
         <v>8</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="51">
         <v>9</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="51">
         <v>10</v>
       </c>
-      <c r="J6" s="45">
+      <c r="J6" s="51">
         <v>11</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="51">
         <v>12</v>
       </c>
-      <c r="L6" s="45">
+      <c r="L6" s="51">
         <v>13</v>
       </c>
-      <c r="M6" s="47">
+      <c r="M6" s="44">
         <v>14</v>
       </c>
-      <c r="N6" s="47" t="s">
+      <c r="N6" s="44" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1081,17 +1076,17 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1120,13 +1115,13 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="39" t="s">
+      <c r="I9" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="41"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="40"/>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
@@ -1202,7 +1197,7 @@
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="36" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="1"/>
@@ -1270,13 +1265,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="37" t="s">
+      <c r="I18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="38"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
       <c r="N18" s="15"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
@@ -1287,7 +1282,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="37"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -1314,34 +1309,34 @@
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="56"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="51" t="s">
+      <c r="C22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="53"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1353,37 +1348,37 @@
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="51">
         <v>5</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="51">
         <v>6</v>
       </c>
-      <c r="F27" s="45">
+      <c r="F27" s="51">
         <v>7</v>
       </c>
-      <c r="G27" s="45">
+      <c r="G27" s="51">
         <v>8</v>
       </c>
-      <c r="H27" s="45">
+      <c r="H27" s="51">
         <v>9</v>
       </c>
-      <c r="I27" s="45">
+      <c r="I27" s="51">
         <v>10</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="51">
         <v>11</v>
       </c>
-      <c r="K27" s="45">
+      <c r="K27" s="51">
         <v>12</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="51">
         <v>13</v>
       </c>
-      <c r="M27" s="47">
+      <c r="M27" s="44">
         <v>14</v>
       </c>
-      <c r="N27" s="49" t="s">
+      <c r="N27" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1391,17 +1386,17 @@
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="50"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
@@ -1416,8 +1411,8 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="31" t="s">
+      <c r="M29" s="27"/>
+      <c r="N29" s="30" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1430,14 +1425,14 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="26" t="s">
+      <c r="I30" s="33"/>
+      <c r="J30" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="25" t="s">
+      <c r="K30" s="33"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="24" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1447,15 +1442,15 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="11"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="25" t="s">
+      <c r="M31" s="26"/>
+      <c r="N31" s="24" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1463,19 +1458,21 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="42" t="s">
+      <c r="D32" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="11"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="27"/>
-      <c r="N32" s="25" t="s">
+      <c r="M32" s="26"/>
+      <c r="N32" s="24" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1486,21 +1483,21 @@
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="21"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="1"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="1"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="27"/>
-      <c r="N33" s="25"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="24"/>
     </row>
     <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="18"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -1508,8 +1505,8 @@
       <c r="J34" s="11"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="27"/>
-      <c r="N34" s="25" t="s">
+      <c r="M34" s="26"/>
+      <c r="N34" s="24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1521,15 +1518,15 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="18" t="s">
+      <c r="H35" s="17" t="s">
         <v>16</v>
       </c>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="27"/>
-      <c r="N35" s="25" t="s">
+      <c r="M35" s="26"/>
+      <c r="N35" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1540,14 +1537,14 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="18"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="27"/>
-      <c r="N36" s="25" t="s">
+      <c r="M36" s="26"/>
+      <c r="N36" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1557,15 +1554,15 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="1"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="25" t="s">
+      <c r="M37" s="26"/>
+      <c r="N37" s="24" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1576,14 +1573,14 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="11"/>
-      <c r="G38" s="18"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="1"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="27"/>
-      <c r="N38" s="25" t="s">
+      <c r="M38" s="26"/>
+      <c r="N38" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1598,12 +1595,12 @@
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="26" t="s">
+      <c r="K39" s="33"/>
+      <c r="L39" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M39" s="29"/>
-      <c r="N39" s="25"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="24"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1613,22 +1610,22 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="18"/>
       <c r="J40" s="11"/>
       <c r="K40" s="11"/>
       <c r="L40" s="11"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="25" t="s">
-        <v>28</v>
+      <c r="M40" s="29"/>
+      <c r="N40" s="24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -1636,13 +1633,13 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="25" t="s">
+      <c r="M41" s="26"/>
+      <c r="N41" s="24" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="11"/>
@@ -1650,53 +1647,65 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="18"/>
+      <c r="I42" s="17"/>
       <c r="J42" s="11"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="32" t="s">
+      <c r="M42" s="26"/>
+      <c r="N42" s="31" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="43" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="35" t="s">
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="33"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="32" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="44" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="32" t="s">
-        <v>22</v>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="59"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="31" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="C22:M22"/>
@@ -1713,15 +1722,6 @@
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/docs/WIP/development plan.xlsx
+++ b/docs/WIP/development plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\RSP\102_CASA\docs\WIP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
   <si>
     <t>Search</t>
   </si>
@@ -147,6 +152,41 @@
   </si>
   <si>
     <t>Yevgeniya Chekh, David Löffler</t>
+  </si>
+  <si>
+    <t>ChR by David Löffler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Week </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>→</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Module </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>↓</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -608,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,6 +701,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -682,12 +738,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -697,19 +747,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,9 +786,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -770,9 +826,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +863,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +898,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,8 +1074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,37 +1094,37 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="48">
         <v>5</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="48">
         <v>6</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="48">
         <v>7</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="48">
         <v>8</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="48">
         <v>9</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="48">
         <v>10</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="48">
         <v>11</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="48">
         <v>12</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="48">
         <v>13</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="50">
         <v>14</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1076,17 +1132,17 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1309,34 +1365,34 @@
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="56"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1348,37 +1404,37 @@
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="48">
         <v>5</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="48">
         <v>6</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="48">
         <v>7</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="48">
         <v>8</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="48">
         <v>9</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="48">
         <v>10</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="48">
         <v>11</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="48">
         <v>12</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="48">
         <v>13</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="50">
         <v>14</v>
       </c>
-      <c r="N27" s="46" t="s">
+      <c r="N27" s="52" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1386,17 +1442,17 @@
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="47"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="53"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
@@ -1458,16 +1514,16 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="56" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1600,7 +1656,9 @@
         <v>17</v>
       </c>
       <c r="M39" s="28"/>
-      <c r="N39" s="24"/>
+      <c r="N39" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1685,7 +1743,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
-      <c r="I44" s="59"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -1696,16 +1754,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G32:I32"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="C22:M22"/>
@@ -1722,6 +1770,16 @@
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G32:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1730,12 +1788,384 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="48">
+        <v>5</v>
+      </c>
+      <c r="D4" s="48">
+        <v>6</v>
+      </c>
+      <c r="E4" s="48">
+        <v>7</v>
+      </c>
+      <c r="F4" s="48">
+        <v>8</v>
+      </c>
+      <c r="G4" s="48">
+        <v>9</v>
+      </c>
+      <c r="H4" s="48">
+        <v>10</v>
+      </c>
+      <c r="I4" s="48">
+        <v>11</v>
+      </c>
+      <c r="J4" s="48">
+        <v>12</v>
+      </c>
+      <c r="K4" s="48">
+        <v>13</v>
+      </c>
+      <c r="L4" s="50">
+        <v>14</v>
+      </c>
+      <c r="M4" s="52" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/docs/WIP/development plan.xlsx
+++ b/docs/WIP/development plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>Search</t>
   </si>
@@ -188,12 +188,15 @@
       <t>↓</t>
     </r>
   </si>
+  <si>
+    <t>w11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +238,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -648,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -702,66 +714,75 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1075,7 +1096,7 @@
   <dimension ref="C4:N44"/>
   <sheetViews>
     <sheetView topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32:I32"/>
+      <selection activeCell="G32" sqref="D32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,37 +1115,37 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="55">
         <v>5</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="55">
         <v>6</v>
       </c>
-      <c r="F6" s="48">
+      <c r="F6" s="55">
         <v>7</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="55">
         <v>8</v>
       </c>
-      <c r="H6" s="48">
+      <c r="H6" s="55">
         <v>9</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="55">
         <v>10</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="55">
         <v>11</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="55">
         <v>12</v>
       </c>
-      <c r="L6" s="48">
+      <c r="L6" s="55">
         <v>13</v>
       </c>
-      <c r="M6" s="50">
+      <c r="M6" s="48">
         <v>14</v>
       </c>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="48" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1132,17 +1153,17 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1380,19 +1401,19 @@
       <c r="M21" s="59"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1404,37 +1425,37 @@
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="55">
         <v>5</v>
       </c>
-      <c r="E27" s="48">
+      <c r="E27" s="55">
         <v>6</v>
       </c>
-      <c r="F27" s="48">
+      <c r="F27" s="55">
         <v>7</v>
       </c>
-      <c r="G27" s="48">
+      <c r="G27" s="55">
         <v>8</v>
       </c>
-      <c r="H27" s="48">
+      <c r="H27" s="55">
         <v>9</v>
       </c>
-      <c r="I27" s="48">
+      <c r="I27" s="55">
         <v>10</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="55">
         <v>11</v>
       </c>
-      <c r="K27" s="48">
+      <c r="K27" s="55">
         <v>12</v>
       </c>
-      <c r="L27" s="48">
+      <c r="L27" s="55">
         <v>13</v>
       </c>
-      <c r="M27" s="50">
+      <c r="M27" s="48">
         <v>14</v>
       </c>
-      <c r="N27" s="52" t="s">
+      <c r="N27" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1442,17 +1463,17 @@
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
-      <c r="L28" s="49"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="53"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="51"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
@@ -1514,16 +1535,16 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="45" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="46"/>
-      <c r="I32" s="47"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1754,6 +1775,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G32:I32"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="N27:N28"/>
     <mergeCell ref="C22:M22"/>
@@ -1770,16 +1801,6 @@
     <mergeCell ref="C21:M21"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="G32:I32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -1790,8 +1811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,37 +1826,37 @@
       <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="55">
         <v>5</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="55">
         <v>6</v>
       </c>
-      <c r="E4" s="48">
+      <c r="E4" s="55">
         <v>7</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="55">
         <v>8</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="55">
         <v>9</v>
       </c>
-      <c r="H4" s="48">
+      <c r="H4" s="55">
         <v>10</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="55">
         <v>11</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="55">
         <v>12</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="55">
         <v>13</v>
       </c>
-      <c r="L4" s="50">
+      <c r="L4" s="48">
         <v>14</v>
       </c>
-      <c r="M4" s="52" t="s">
+      <c r="M4" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1843,17 +1864,17 @@
       <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="53"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="51"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -1883,7 +1904,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="45" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="25"/>
@@ -1915,15 +1936,15 @@
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
       <c r="L9" s="26"/>
       <c r="M9" s="24" t="s">
         <v>26</v>
@@ -2094,7 +2115,7 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="46" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="11"/>
@@ -2112,7 +2133,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="47" t="s">
         <v>16</v>
       </c>
       <c r="C20" s="21"/>
@@ -2132,7 +2153,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="47" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="21"/>
@@ -2151,11 +2172,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="I9:K9"/>
@@ -2165,6 +2181,11 @@
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2172,12 +2193,391 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="C5:N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="55">
+        <v>5</v>
+      </c>
+      <c r="E5" s="55">
+        <v>6</v>
+      </c>
+      <c r="F5" s="55">
+        <v>7</v>
+      </c>
+      <c r="G5" s="55">
+        <v>8</v>
+      </c>
+      <c r="H5" s="55">
+        <v>9</v>
+      </c>
+      <c r="I5" s="55">
+        <v>10</v>
+      </c>
+      <c r="J5" s="55">
+        <v>11</v>
+      </c>
+      <c r="K5" s="55">
+        <v>12</v>
+      </c>
+      <c r="L5" s="55">
+        <v>13</v>
+      </c>
+      <c r="M5" s="48">
+        <v>14</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="51"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/WIP/development plan.xlsx
+++ b/docs/WIP/development plan.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\RSP\102_CASA\docs\WIP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>Search</t>
   </si>
@@ -153,50 +148,12 @@
   <si>
     <t>Yevgeniya Chekh, David Löffler</t>
   </si>
-  <si>
-    <t>ChR by David Löffler</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Week </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>→</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Module </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>↓</t>
-    </r>
-  </si>
-  <si>
-    <t>w11</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,15 +195,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -660,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -713,14 +661,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -766,27 +706,10 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -807,9 +730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -847,9 +770,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -884,7 +807,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,7 +842,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1095,8 +1018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G32" sqref="D32:I32"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,37 +1038,37 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="51">
         <v>5</v>
       </c>
-      <c r="E6" s="55">
+      <c r="E6" s="51">
         <v>6</v>
       </c>
-      <c r="F6" s="55">
+      <c r="F6" s="51">
         <v>7</v>
       </c>
-      <c r="G6" s="55">
+      <c r="G6" s="51">
         <v>8</v>
       </c>
-      <c r="H6" s="55">
+      <c r="H6" s="51">
         <v>9</v>
       </c>
-      <c r="I6" s="55">
+      <c r="I6" s="51">
         <v>10</v>
       </c>
-      <c r="J6" s="55">
+      <c r="J6" s="51">
         <v>11</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="51">
         <v>12</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="51">
         <v>13</v>
       </c>
-      <c r="M6" s="48">
+      <c r="M6" s="44">
         <v>14</v>
       </c>
-      <c r="N6" s="48" t="s">
+      <c r="N6" s="44" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1153,17 +1076,17 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1386,34 +1309,34 @@
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="58"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="55"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="54"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1425,37 +1348,37 @@
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="51">
         <v>5</v>
       </c>
-      <c r="E27" s="55">
+      <c r="E27" s="51">
         <v>6</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="51">
         <v>7</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="51">
         <v>8</v>
       </c>
-      <c r="H27" s="55">
+      <c r="H27" s="51">
         <v>9</v>
       </c>
-      <c r="I27" s="55">
+      <c r="I27" s="51">
         <v>10</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="51">
         <v>11</v>
       </c>
-      <c r="K27" s="55">
+      <c r="K27" s="51">
         <v>12</v>
       </c>
-      <c r="L27" s="55">
+      <c r="L27" s="51">
         <v>13</v>
       </c>
-      <c r="M27" s="48">
+      <c r="M27" s="44">
         <v>14</v>
       </c>
-      <c r="N27" s="50" t="s">
+      <c r="N27" s="46" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1463,17 +1386,17 @@
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="49"/>
-      <c r="N28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="47"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
@@ -1535,16 +1458,16 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="60" t="s">
+      <c r="E32" s="57"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1677,9 +1600,7 @@
         <v>17</v>
       </c>
       <c r="M39" s="28"/>
-      <c r="N39" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="N39" s="24"/>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1764,7 +1685,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
-      <c r="I44" s="44"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -1809,775 +1730,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:M21"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="42.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="55">
-        <v>5</v>
-      </c>
-      <c r="D4" s="55">
-        <v>6</v>
-      </c>
-      <c r="E4" s="55">
-        <v>7</v>
-      </c>
-      <c r="F4" s="55">
-        <v>8</v>
-      </c>
-      <c r="G4" s="55">
-        <v>9</v>
-      </c>
-      <c r="H4" s="55">
-        <v>10</v>
-      </c>
-      <c r="I4" s="55">
-        <v>11</v>
-      </c>
-      <c r="J4" s="55">
-        <v>12</v>
-      </c>
-      <c r="K4" s="55">
-        <v>13</v>
-      </c>
-      <c r="L4" s="48">
-        <v>14</v>
-      </c>
-      <c r="M4" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="56"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="51"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="63"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="24"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="28"/>
-      <c r="M16" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="44"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N22"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="C5:N22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="55">
-        <v>5</v>
-      </c>
-      <c r="E5" s="55">
-        <v>6</v>
-      </c>
-      <c r="F5" s="55">
-        <v>7</v>
-      </c>
-      <c r="G5" s="55">
-        <v>8</v>
-      </c>
-      <c r="H5" s="55">
-        <v>9</v>
-      </c>
-      <c r="I5" s="55">
-        <v>10</v>
-      </c>
-      <c r="J5" s="55">
-        <v>11</v>
-      </c>
-      <c r="K5" s="55">
-        <v>12</v>
-      </c>
-      <c r="L5" s="55">
-        <v>13</v>
-      </c>
-      <c r="M5" s="48">
-        <v>14</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="51"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="M17" s="28"/>
-      <c r="N17" s="24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="29"/>
-      <c r="N18" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="44"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="32" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="31" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/WIP/development plan.xlsx
+++ b/docs/WIP/development plan.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marek\RSP\102_CASA\docs\WIP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="39">
   <si>
     <t>Search</t>
   </si>
@@ -148,12 +153,50 @@
   <si>
     <t>Yevgeniya Chekh, David Löffler</t>
   </si>
+  <si>
+    <t>ChR by David Löffler</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Week </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>→</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Module </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+  </si>
+  <si>
+    <t>w11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +238,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -608,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -661,6 +713,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -706,10 +766,27 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -730,9 +807,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv systému Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -770,9 +847,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -807,7 +884,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -842,7 +919,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1018,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G32" sqref="D32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,37 +1115,37 @@
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="55">
         <v>5</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="55">
         <v>6</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="55">
         <v>7</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="55">
         <v>8</v>
       </c>
-      <c r="H6" s="51">
+      <c r="H6" s="55">
         <v>9</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="55">
         <v>10</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="55">
         <v>11</v>
       </c>
-      <c r="K6" s="51">
+      <c r="K6" s="55">
         <v>12</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="55">
         <v>13</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="48">
         <v>14</v>
       </c>
-      <c r="N6" s="44" t="s">
+      <c r="N6" s="48" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1076,17 +1153,17 @@
       <c r="C7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="45"/>
-      <c r="N7" s="45"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1309,34 +1386,34 @@
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="55"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="59"/>
     </row>
     <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="50"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="54"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
@@ -1348,37 +1425,37 @@
       <c r="C27" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="51">
+      <c r="D27" s="55">
         <v>5</v>
       </c>
-      <c r="E27" s="51">
+      <c r="E27" s="55">
         <v>6</v>
       </c>
-      <c r="F27" s="51">
+      <c r="F27" s="55">
         <v>7</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="55">
         <v>8</v>
       </c>
-      <c r="H27" s="51">
+      <c r="H27" s="55">
         <v>9</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="55">
         <v>10</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="55">
         <v>11</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="55">
         <v>12</v>
       </c>
-      <c r="L27" s="51">
+      <c r="L27" s="55">
         <v>13</v>
       </c>
-      <c r="M27" s="44">
+      <c r="M27" s="48">
         <v>14</v>
       </c>
-      <c r="N27" s="46" t="s">
+      <c r="N27" s="50" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1386,17 +1463,17 @@
       <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="47"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="51"/>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
@@ -1458,16 +1535,16 @@
       <c r="C32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="56" t="s">
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="11"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1600,7 +1677,9 @@
         <v>17</v>
       </c>
       <c r="M39" s="28"/>
-      <c r="N39" s="24"/>
+      <c r="N39" s="24" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
@@ -1685,7 +1764,7 @@
       <c r="F44" s="22"/>
       <c r="G44" s="22"/>
       <c r="H44" s="22"/>
-      <c r="I44" s="59"/>
+      <c r="I44" s="44"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -1730,24 +1809,775 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:M21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="55">
+        <v>5</v>
+      </c>
+      <c r="D4" s="55">
+        <v>6</v>
+      </c>
+      <c r="E4" s="55">
+        <v>7</v>
+      </c>
+      <c r="F4" s="55">
+        <v>8</v>
+      </c>
+      <c r="G4" s="55">
+        <v>9</v>
+      </c>
+      <c r="H4" s="55">
+        <v>10</v>
+      </c>
+      <c r="I4" s="55">
+        <v>11</v>
+      </c>
+      <c r="J4" s="55">
+        <v>12</v>
+      </c>
+      <c r="K4" s="55">
+        <v>13</v>
+      </c>
+      <c r="L4" s="48">
+        <v>14</v>
+      </c>
+      <c r="M4" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="51"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="63"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="28"/>
+      <c r="M16" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B4:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N5" sqref="C5:N22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="55">
+        <v>5</v>
+      </c>
+      <c r="E5" s="55">
+        <v>6</v>
+      </c>
+      <c r="F5" s="55">
+        <v>7</v>
+      </c>
+      <c r="G5" s="55">
+        <v>8</v>
+      </c>
+      <c r="H5" s="55">
+        <v>9</v>
+      </c>
+      <c r="I5" s="55">
+        <v>10</v>
+      </c>
+      <c r="J5" s="55">
+        <v>11</v>
+      </c>
+      <c r="K5" s="55">
+        <v>12</v>
+      </c>
+      <c r="L5" s="55">
+        <v>13</v>
+      </c>
+      <c r="M5" s="48">
+        <v>14</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="51"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="25"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="28"/>
+      <c r="N17" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C20" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="J21" s="44"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>